--- a/dataproject/Data/BIO5.xlsx
+++ b/dataproject/Data/BIO5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4e764cdb800e3401/Dokumenter/Polit/2. Kandidat/IntroductionProgramming/Projects/projects-2024-anna-signe-og-klara/dataproject/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{170518B6-1B51-4142-97CA-C69FD63C342A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="34" documentId="8_{170518B6-1B51-4142-97CA-C69FD63C342A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{23C61E22-8676-490A-95AA-85F5226AB2DC}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20" yWindow="380" windowWidth="19180" windowHeight="10060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BIO5" sheetId="2" r:id="rId1"/>
@@ -223,6 +223,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -512,7 +516,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V293"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="99" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -656,6 +662,9 @@
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
       <c r="E5" s="3" t="s">
         <v>24</v>
       </c>
@@ -712,6 +721,9 @@
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
       <c r="E6" s="3" t="s">
         <v>25</v>
       </c>
@@ -768,6 +780,9 @@
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
       <c r="E7" s="3" t="s">
         <v>26</v>
       </c>
@@ -824,6 +839,9 @@
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
       <c r="E8" s="3" t="s">
         <v>27</v>
       </c>
@@ -880,6 +898,9 @@
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
       <c r="E9" s="3" t="s">
         <v>28</v>
       </c>
@@ -936,6 +957,9 @@
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
       <c r="E10" s="3" t="s">
         <v>29</v>
       </c>
@@ -992,6 +1016,9 @@
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
       <c r="E11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1048,6 +1075,8 @@
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
       <c r="D12" s="3" t="s">
         <v>31</v>
       </c>
@@ -1107,6 +1136,9 @@
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
       <c r="E13" s="3" t="s">
         <v>24</v>
       </c>
@@ -1163,6 +1195,9 @@
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
       <c r="E14" s="3" t="s">
         <v>25</v>
       </c>
@@ -1219,6 +1254,9 @@
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
       <c r="E15" s="3" t="s">
         <v>26</v>
       </c>
@@ -1275,6 +1313,9 @@
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
       <c r="E16" s="3" t="s">
         <v>27</v>
       </c>
@@ -1330,7 +1371,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
       <c r="E17" s="3" t="s">
         <v>28</v>
       </c>
@@ -1386,7 +1430,10 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
       <c r="E18" s="3" t="s">
         <v>29</v>
       </c>
@@ -1442,7 +1489,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
       <c r="E19" s="3" t="s">
         <v>30</v>
       </c>
@@ -1498,7 +1548,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B20" s="3"/>
       <c r="C20" s="3" t="s">
         <v>32</v>
       </c>
@@ -1560,7 +1611,10 @@
         <v>884</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
       <c r="E21" s="3" t="s">
         <v>24</v>
       </c>
@@ -1616,7 +1670,10 @@
         <v>867</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
       <c r="E22" s="3" t="s">
         <v>25</v>
       </c>
@@ -1672,7 +1729,10 @@
         <v>628</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
       <c r="E23" s="3" t="s">
         <v>26</v>
       </c>
@@ -1728,7 +1788,10 @@
         <v>239</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
       <c r="E24" s="3" t="s">
         <v>27</v>
       </c>
@@ -1784,7 +1847,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
       <c r="E25" s="3" t="s">
         <v>28</v>
       </c>
@@ -1840,7 +1906,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
       <c r="E26" s="3" t="s">
         <v>29</v>
       </c>
@@ -1896,7 +1965,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
       <c r="E27" s="3" t="s">
         <v>30</v>
       </c>
@@ -1952,7 +2024,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
       <c r="D28" s="3" t="s">
         <v>31</v>
       </c>
@@ -2011,7 +2085,10 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
       <c r="E29" s="3" t="s">
         <v>24</v>
       </c>
@@ -2067,7 +2144,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
       <c r="E30" s="3" t="s">
         <v>25</v>
       </c>
@@ -2123,7 +2203,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
       <c r="E31" s="3" t="s">
         <v>26</v>
       </c>
@@ -2179,7 +2262,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
       <c r="E32" s="3" t="s">
         <v>27</v>
       </c>
@@ -2235,7 +2321,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
       <c r="E33" s="3" t="s">
         <v>28</v>
       </c>
@@ -2291,7 +2380,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
       <c r="E34" s="3" t="s">
         <v>29</v>
       </c>
@@ -2347,7 +2439,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
       <c r="E35" s="3" t="s">
         <v>30</v>
       </c>
@@ -2403,7 +2498,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B36" s="3"/>
       <c r="C36" s="3" t="s">
         <v>33</v>
       </c>
@@ -2465,7 +2561,9 @@
         <v>704</v>
       </c>
     </row>
-    <row r="37" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
       <c r="E37" s="3" t="s">
         <v>24</v>
       </c>
@@ -2521,7 +2619,9 @@
         <v>694</v>
       </c>
     </row>
-    <row r="38" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
       <c r="E38" s="3" t="s">
         <v>25</v>
       </c>
@@ -2577,7 +2677,9 @@
         <v>624</v>
       </c>
     </row>
-    <row r="39" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
       <c r="E39" s="3" t="s">
         <v>26</v>
       </c>
@@ -2633,7 +2735,9 @@
         <v>70</v>
       </c>
     </row>
-    <row r="40" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
       <c r="E40" s="3" t="s">
         <v>27</v>
       </c>
@@ -2689,7 +2793,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
       <c r="E41" s="3" t="s">
         <v>28</v>
       </c>
@@ -2745,7 +2851,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
       <c r="E42" s="3" t="s">
         <v>29</v>
       </c>
@@ -2801,7 +2909,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
       <c r="E43" s="3" t="s">
         <v>30</v>
       </c>
@@ -2857,7 +2967,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
       <c r="D44" s="3" t="s">
         <v>31</v>
       </c>
@@ -2916,7 +3028,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
       <c r="E45" s="3" t="s">
         <v>24</v>
       </c>
@@ -2972,7 +3086,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
       <c r="E46" s="3" t="s">
         <v>25</v>
       </c>
@@ -3028,7 +3144,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
       <c r="E47" s="3" t="s">
         <v>26</v>
       </c>
@@ -3084,7 +3202,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
       <c r="E48" s="3" t="s">
         <v>27</v>
       </c>
@@ -3140,7 +3260,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
       <c r="E49" s="3" t="s">
         <v>28</v>
       </c>
@@ -3196,7 +3318,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
       <c r="E50" s="3" t="s">
         <v>29</v>
       </c>
@@ -3252,7 +3376,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
       <c r="E51" s="3" t="s">
         <v>30</v>
       </c>
@@ -3308,7 +3434,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B52" s="3"/>
       <c r="C52" s="3" t="s">
         <v>34</v>
       </c>
@@ -3370,7 +3497,9 @@
         <v>712</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
       <c r="E53" s="3" t="s">
         <v>24</v>
       </c>
@@ -3426,7 +3555,9 @@
         <v>712</v>
       </c>
     </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
       <c r="E54" s="3" t="s">
         <v>25</v>
       </c>
@@ -3482,7 +3613,9 @@
         <v>712</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
       <c r="E55" s="3" t="s">
         <v>26</v>
       </c>
@@ -3538,7 +3671,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
       <c r="E56" s="3" t="s">
         <v>27</v>
       </c>
@@ -3594,7 +3729,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
       <c r="E57" s="3" t="s">
         <v>28</v>
       </c>
@@ -3650,7 +3787,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
       <c r="E58" s="3" t="s">
         <v>29</v>
       </c>
@@ -3706,7 +3845,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
       <c r="E59" s="3" t="s">
         <v>30</v>
       </c>
@@ -3762,7 +3903,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B60" s="3"/>
+      <c r="C60" s="3"/>
       <c r="D60" s="3" t="s">
         <v>31</v>
       </c>
@@ -3821,7 +3964,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B61" s="3"/>
+      <c r="C61" s="3"/>
       <c r="E61" s="3" t="s">
         <v>24</v>
       </c>
@@ -3877,7 +4022,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B62" s="3"/>
+      <c r="C62" s="3"/>
       <c r="E62" s="3" t="s">
         <v>25</v>
       </c>
@@ -3933,7 +4080,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B63" s="3"/>
+      <c r="C63" s="3"/>
       <c r="E63" s="3" t="s">
         <v>26</v>
       </c>
@@ -3989,7 +4138,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B64" s="3"/>
+      <c r="C64" s="3"/>
       <c r="E64" s="3" t="s">
         <v>27</v>
       </c>
@@ -4045,7 +4196,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B65" s="3"/>
+      <c r="C65" s="3"/>
       <c r="E65" s="3" t="s">
         <v>28</v>
       </c>
@@ -4101,7 +4254,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B66" s="3"/>
+      <c r="C66" s="3"/>
       <c r="E66" s="3" t="s">
         <v>29</v>
       </c>
@@ -4157,7 +4312,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B67" s="3"/>
+      <c r="C67" s="3"/>
       <c r="E67" s="3" t="s">
         <v>30</v>
       </c>
@@ -4213,7 +4370,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B68" s="3"/>
       <c r="C68" s="3" t="s">
         <v>35</v>
       </c>
@@ -4275,7 +4433,9 @@
         <v>873</v>
       </c>
     </row>
-    <row r="69" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B69" s="3"/>
+      <c r="C69" s="3"/>
       <c r="E69" s="3" t="s">
         <v>24</v>
       </c>
@@ -4331,7 +4491,9 @@
         <v>870</v>
       </c>
     </row>
-    <row r="70" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B70" s="3"/>
+      <c r="C70" s="3"/>
       <c r="E70" s="3" t="s">
         <v>25</v>
       </c>
@@ -4387,7 +4549,9 @@
         <v>870</v>
       </c>
     </row>
-    <row r="71" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B71" s="3"/>
+      <c r="C71" s="3"/>
       <c r="E71" s="3" t="s">
         <v>26</v>
       </c>
@@ -4443,7 +4607,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B72" s="3"/>
+      <c r="C72" s="3"/>
       <c r="E72" s="3" t="s">
         <v>27</v>
       </c>
@@ -4499,7 +4665,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B73" s="3"/>
+      <c r="C73" s="3"/>
       <c r="E73" s="3" t="s">
         <v>28</v>
       </c>
@@ -4555,7 +4723,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B74" s="3"/>
+      <c r="C74" s="3"/>
       <c r="E74" s="3" t="s">
         <v>29</v>
       </c>
@@ -4611,7 +4781,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B75" s="3"/>
+      <c r="C75" s="3"/>
       <c r="E75" s="3" t="s">
         <v>30</v>
       </c>
@@ -4667,7 +4839,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B76" s="3"/>
+      <c r="C76" s="3"/>
       <c r="D76" s="3" t="s">
         <v>31</v>
       </c>
@@ -4726,7 +4900,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="77" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B77" s="3"/>
+      <c r="C77" s="3"/>
       <c r="E77" s="3" t="s">
         <v>24</v>
       </c>
@@ -4782,7 +4958,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="78" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B78" s="3"/>
+      <c r="C78" s="3"/>
       <c r="E78" s="3" t="s">
         <v>25</v>
       </c>
@@ -4838,7 +5016,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="79" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B79" s="3"/>
+      <c r="C79" s="3"/>
       <c r="E79" s="3" t="s">
         <v>26</v>
       </c>
@@ -4894,7 +5074,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B80" s="3"/>
+      <c r="C80" s="3"/>
       <c r="E80" s="3" t="s">
         <v>27</v>
       </c>
@@ -4950,7 +5132,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B81" s="3"/>
+      <c r="C81" s="3"/>
       <c r="E81" s="3" t="s">
         <v>28</v>
       </c>
@@ -5006,7 +5190,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B82" s="3"/>
+      <c r="C82" s="3"/>
       <c r="E82" s="3" t="s">
         <v>29</v>
       </c>
@@ -5062,7 +5248,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="83" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B83" s="3"/>
+      <c r="C83" s="3"/>
       <c r="E83" s="3" t="s">
         <v>30</v>
       </c>
@@ -5118,7 +5306,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B84" s="3"/>
       <c r="C84" s="3" t="s">
         <v>36</v>
       </c>
@@ -5180,7 +5369,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B85" s="3"/>
+      <c r="C85" s="3"/>
       <c r="E85" s="3" t="s">
         <v>24</v>
       </c>
@@ -5236,7 +5427,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B86" s="3"/>
+      <c r="C86" s="3"/>
       <c r="E86" s="3" t="s">
         <v>25</v>
       </c>
@@ -5292,7 +5485,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="87" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B87" s="3"/>
+      <c r="C87" s="3"/>
       <c r="E87" s="3" t="s">
         <v>26</v>
       </c>
@@ -5348,7 +5543,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B88" s="3"/>
+      <c r="C88" s="3"/>
       <c r="E88" s="3" t="s">
         <v>27</v>
       </c>
@@ -5404,7 +5601,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B89" s="3"/>
+      <c r="C89" s="3"/>
       <c r="E89" s="3" t="s">
         <v>28</v>
       </c>
@@ -5460,7 +5659,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B90" s="3"/>
+      <c r="C90" s="3"/>
       <c r="E90" s="3" t="s">
         <v>29</v>
       </c>
@@ -5516,7 +5717,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="91" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B91" s="3"/>
+      <c r="C91" s="3"/>
       <c r="E91" s="3" t="s">
         <v>30</v>
       </c>
@@ -5572,7 +5775,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B92" s="3"/>
+      <c r="C92" s="3"/>
       <c r="D92" s="3" t="s">
         <v>31</v>
       </c>
@@ -5631,7 +5836,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B93" s="3"/>
+      <c r="C93" s="3"/>
       <c r="E93" s="3" t="s">
         <v>24</v>
       </c>
@@ -5687,7 +5894,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B94" s="3"/>
+      <c r="C94" s="3"/>
       <c r="E94" s="3" t="s">
         <v>25</v>
       </c>
@@ -5743,7 +5952,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B95" s="3"/>
+      <c r="C95" s="3"/>
       <c r="E95" s="3" t="s">
         <v>26</v>
       </c>
@@ -5799,7 +6010,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="96" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B96" s="3"/>
+      <c r="C96" s="3"/>
       <c r="E96" s="3" t="s">
         <v>27</v>
       </c>
@@ -5856,6 +6069,8 @@
       </c>
     </row>
     <row r="97" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B97" s="3"/>
+      <c r="C97" s="3"/>
       <c r="E97" s="3" t="s">
         <v>28</v>
       </c>
@@ -5912,6 +6127,8 @@
       </c>
     </row>
     <row r="98" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B98" s="3"/>
+      <c r="C98" s="3"/>
       <c r="E98" s="3" t="s">
         <v>29</v>
       </c>
@@ -5968,6 +6185,8 @@
       </c>
     </row>
     <row r="99" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B99" s="3"/>
+      <c r="C99" s="3"/>
       <c r="E99" s="3" t="s">
         <v>30</v>
       </c>
@@ -6089,6 +6308,7 @@
       </c>
     </row>
     <row r="101" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B101" s="3"/>
       <c r="E101" s="3" t="s">
         <v>24</v>
       </c>
@@ -6145,6 +6365,7 @@
       </c>
     </row>
     <row r="102" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B102" s="3"/>
       <c r="E102" s="3" t="s">
         <v>25</v>
       </c>
@@ -6201,6 +6422,7 @@
       </c>
     </row>
     <row r="103" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B103" s="3"/>
       <c r="E103" s="3" t="s">
         <v>26</v>
       </c>
@@ -6257,6 +6479,7 @@
       </c>
     </row>
     <row r="104" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B104" s="3"/>
       <c r="E104" s="3" t="s">
         <v>27</v>
       </c>
@@ -6313,6 +6536,7 @@
       </c>
     </row>
     <row r="105" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B105" s="3"/>
       <c r="E105" s="3" t="s">
         <v>28</v>
       </c>
@@ -6369,6 +6593,7 @@
       </c>
     </row>
     <row r="106" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B106" s="3"/>
       <c r="E106" s="3" t="s">
         <v>29</v>
       </c>
@@ -6425,6 +6650,7 @@
       </c>
     </row>
     <row r="107" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B107" s="3"/>
       <c r="E107" s="3" t="s">
         <v>30</v>
       </c>
@@ -6481,6 +6707,7 @@
       </c>
     </row>
     <row r="108" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B108" s="3"/>
       <c r="D108" s="3" t="s">
         <v>31</v>
       </c>
@@ -6540,6 +6767,7 @@
       </c>
     </row>
     <row r="109" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B109" s="3"/>
       <c r="E109" s="3" t="s">
         <v>24</v>
       </c>
@@ -6596,6 +6824,7 @@
       </c>
     </row>
     <row r="110" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B110" s="3"/>
       <c r="E110" s="3" t="s">
         <v>25</v>
       </c>
@@ -6652,6 +6881,7 @@
       </c>
     </row>
     <row r="111" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B111" s="3"/>
       <c r="E111" s="3" t="s">
         <v>26</v>
       </c>
@@ -6708,6 +6938,7 @@
       </c>
     </row>
     <row r="112" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B112" s="3"/>
       <c r="E112" s="3" t="s">
         <v>27</v>
       </c>
@@ -6763,7 +6994,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="113" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B113" s="3"/>
       <c r="E113" s="3" t="s">
         <v>28</v>
       </c>
@@ -6819,7 +7051,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="114" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B114" s="3"/>
       <c r="E114" s="3" t="s">
         <v>29</v>
       </c>
@@ -6875,7 +7108,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="115" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B115" s="3"/>
       <c r="E115" s="3" t="s">
         <v>30</v>
       </c>
@@ -6931,7 +7165,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="116" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B116" s="3"/>
       <c r="C116" s="3" t="s">
         <v>32</v>
       </c>
@@ -6993,7 +7228,8 @@
         <v>440</v>
       </c>
     </row>
-    <row r="117" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="117" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B117" s="3"/>
       <c r="E117" s="3" t="s">
         <v>24</v>
       </c>
@@ -7049,7 +7285,8 @@
         <v>431</v>
       </c>
     </row>
-    <row r="118" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="118" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B118" s="3"/>
       <c r="E118" s="3" t="s">
         <v>25</v>
       </c>
@@ -7105,7 +7342,8 @@
         <v>75</v>
       </c>
     </row>
-    <row r="119" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="119" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B119" s="3"/>
       <c r="E119" s="3" t="s">
         <v>26</v>
       </c>
@@ -7161,7 +7399,8 @@
         <v>356</v>
       </c>
     </row>
-    <row r="120" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="120" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B120" s="3"/>
       <c r="E120" s="3" t="s">
         <v>27</v>
       </c>
@@ -7217,7 +7456,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="121" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="121" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B121" s="3"/>
       <c r="E121" s="3" t="s">
         <v>28</v>
       </c>
@@ -7273,7 +7513,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="122" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="122" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B122" s="3"/>
       <c r="E122" s="3" t="s">
         <v>29</v>
       </c>
@@ -7329,7 +7570,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="123" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B123" s="3"/>
       <c r="E123" s="3" t="s">
         <v>30</v>
       </c>
@@ -7385,7 +7627,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="124" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B124" s="3"/>
       <c r="D124" s="3" t="s">
         <v>31</v>
       </c>
@@ -7444,7 +7687,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="125" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="125" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B125" s="3"/>
       <c r="E125" s="3" t="s">
         <v>24</v>
       </c>
@@ -7500,7 +7744,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="126" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="126" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B126" s="3"/>
       <c r="E126" s="3" t="s">
         <v>25</v>
       </c>
@@ -7556,7 +7801,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="127" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="127" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B127" s="3"/>
       <c r="E127" s="3" t="s">
         <v>26</v>
       </c>
@@ -7612,7 +7858,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="128" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="128" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B128" s="3"/>
       <c r="E128" s="3" t="s">
         <v>27</v>
       </c>
@@ -7668,7 +7915,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="129" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B129" s="3"/>
       <c r="E129" s="3" t="s">
         <v>28</v>
       </c>
@@ -7724,7 +7972,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="130" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="130" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B130" s="3"/>
       <c r="E130" s="3" t="s">
         <v>29</v>
       </c>
@@ -7780,7 +8029,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="131" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B131" s="3"/>
       <c r="E131" s="3" t="s">
         <v>30</v>
       </c>
@@ -7836,7 +8086,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="132" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B132" s="3"/>
       <c r="C132" s="3" t="s">
         <v>33</v>
       </c>
@@ -7898,7 +8149,8 @@
         <v>269</v>
       </c>
     </row>
-    <row r="133" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="133" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B133" s="3"/>
       <c r="E133" s="3" t="s">
         <v>24</v>
       </c>
@@ -7954,7 +8206,8 @@
         <v>262</v>
       </c>
     </row>
-    <row r="134" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="134" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B134" s="3"/>
       <c r="E134" s="3" t="s">
         <v>25</v>
       </c>
@@ -8010,7 +8263,8 @@
         <v>73</v>
       </c>
     </row>
-    <row r="135" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="135" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B135" s="3"/>
       <c r="E135" s="3" t="s">
         <v>26</v>
       </c>
@@ -8066,7 +8320,8 @@
         <v>189</v>
       </c>
     </row>
-    <row r="136" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="136" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B136" s="3"/>
       <c r="E136" s="3" t="s">
         <v>27</v>
       </c>
@@ -8122,7 +8377,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="137" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="137" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B137" s="3"/>
       <c r="E137" s="3" t="s">
         <v>28</v>
       </c>
@@ -8178,7 +8434,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="138" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="138" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B138" s="3"/>
       <c r="E138" s="3" t="s">
         <v>29</v>
       </c>
@@ -8234,7 +8491,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="139" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B139" s="3"/>
       <c r="E139" s="3" t="s">
         <v>30</v>
       </c>
@@ -8290,7 +8548,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="140" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B140" s="3"/>
       <c r="D140" s="3" t="s">
         <v>31</v>
       </c>
@@ -8349,7 +8608,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="141" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="141" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B141" s="3"/>
       <c r="E141" s="3" t="s">
         <v>24</v>
       </c>
@@ -8405,7 +8665,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="142" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="142" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B142" s="3"/>
       <c r="E142" s="3" t="s">
         <v>25</v>
       </c>
@@ -8461,7 +8722,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="143" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="143" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B143" s="3"/>
       <c r="E143" s="3" t="s">
         <v>26</v>
       </c>
@@ -8517,7 +8779,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="144" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="144" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B144" s="3"/>
       <c r="E144" s="3" t="s">
         <v>27</v>
       </c>
@@ -8573,7 +8836,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="145" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B145" s="3"/>
       <c r="E145" s="3" t="s">
         <v>28</v>
       </c>
@@ -8629,7 +8893,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="146" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B146" s="3"/>
       <c r="E146" s="3" t="s">
         <v>29</v>
       </c>
@@ -8685,7 +8950,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="147" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B147" s="3"/>
       <c r="E147" s="3" t="s">
         <v>30</v>
       </c>
@@ -8741,7 +9007,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="148" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B148" s="3"/>
       <c r="C148" s="3" t="s">
         <v>34</v>
       </c>
@@ -8803,7 +9070,8 @@
         <v>407</v>
       </c>
     </row>
-    <row r="149" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="149" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B149" s="3"/>
       <c r="E149" s="3" t="s">
         <v>24</v>
       </c>
@@ -8859,7 +9127,8 @@
         <v>407</v>
       </c>
     </row>
-    <row r="150" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="150" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B150" s="3"/>
       <c r="E150" s="3" t="s">
         <v>25</v>
       </c>
@@ -8915,7 +9184,8 @@
         <v>407</v>
       </c>
     </row>
-    <row r="151" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="151" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B151" s="3"/>
       <c r="E151" s="3" t="s">
         <v>26</v>
       </c>
@@ -8971,7 +9241,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="152" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B152" s="3"/>
       <c r="E152" s="3" t="s">
         <v>27</v>
       </c>
@@ -9027,7 +9298,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="153" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B153" s="3"/>
       <c r="E153" s="3" t="s">
         <v>28</v>
       </c>
@@ -9083,7 +9355,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="154" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B154" s="3"/>
       <c r="E154" s="3" t="s">
         <v>29</v>
       </c>
@@ -9139,7 +9412,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="155" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B155" s="3"/>
       <c r="E155" s="3" t="s">
         <v>30</v>
       </c>
@@ -9195,7 +9469,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="156" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B156" s="3"/>
       <c r="D156" s="3" t="s">
         <v>31</v>
       </c>
@@ -9254,7 +9529,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="157" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="157" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B157" s="3"/>
       <c r="E157" s="3" t="s">
         <v>24</v>
       </c>
@@ -9310,7 +9586,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="158" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="158" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B158" s="3"/>
       <c r="E158" s="3" t="s">
         <v>25</v>
       </c>
@@ -9366,7 +9643,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="159" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="159" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B159" s="3"/>
       <c r="E159" s="3" t="s">
         <v>26</v>
       </c>
@@ -9422,7 +9700,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="160" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B160" s="3"/>
       <c r="E160" s="3" t="s">
         <v>27</v>
       </c>
@@ -9478,7 +9757,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="161" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B161" s="3"/>
       <c r="E161" s="3" t="s">
         <v>28</v>
       </c>
@@ -9534,7 +9814,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="162" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B162" s="3"/>
       <c r="E162" s="3" t="s">
         <v>29</v>
       </c>
@@ -9590,7 +9871,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="163" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B163" s="3"/>
       <c r="E163" s="3" t="s">
         <v>30</v>
       </c>
@@ -9646,7 +9928,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="164" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B164" s="3"/>
       <c r="C164" s="3" t="s">
         <v>35</v>
       </c>
@@ -9708,7 +9991,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="165" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="165" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B165" s="3"/>
       <c r="E165" s="3" t="s">
         <v>24</v>
       </c>
@@ -9764,7 +10048,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="166" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="166" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B166" s="3"/>
       <c r="E166" s="3" t="s">
         <v>25</v>
       </c>
@@ -9820,7 +10105,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="167" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="167" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B167" s="3"/>
       <c r="E167" s="3" t="s">
         <v>26</v>
       </c>
@@ -9876,7 +10162,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="168" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B168" s="3"/>
       <c r="E168" s="3" t="s">
         <v>27</v>
       </c>
@@ -9932,7 +10219,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="169" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="169" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B169" s="3"/>
       <c r="E169" s="3" t="s">
         <v>28</v>
       </c>
@@ -9988,7 +10276,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="170" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="170" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B170" s="3"/>
       <c r="E170" s="3" t="s">
         <v>29</v>
       </c>
@@ -10044,7 +10333,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="171" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B171" s="3"/>
       <c r="E171" s="3" t="s">
         <v>30</v>
       </c>
@@ -10100,7 +10390,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="172" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B172" s="3"/>
       <c r="D172" s="3" t="s">
         <v>31</v>
       </c>
@@ -10159,7 +10450,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="173" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="173" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B173" s="3"/>
       <c r="E173" s="3" t="s">
         <v>24</v>
       </c>
@@ -10215,7 +10507,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="174" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="174" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B174" s="3"/>
       <c r="E174" s="3" t="s">
         <v>25</v>
       </c>
@@ -10271,7 +10564,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="175" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="175" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B175" s="3"/>
       <c r="E175" s="3" t="s">
         <v>26</v>
       </c>
@@ -10327,7 +10621,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="176" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B176" s="3"/>
       <c r="E176" s="3" t="s">
         <v>27</v>
       </c>
@@ -10383,7 +10678,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="177" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B177" s="3"/>
       <c r="E177" s="3" t="s">
         <v>28</v>
       </c>
@@ -10439,7 +10735,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="178" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B178" s="3"/>
       <c r="E178" s="3" t="s">
         <v>29</v>
       </c>
@@ -10495,7 +10792,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="179" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B179" s="3"/>
       <c r="E179" s="3" t="s">
         <v>30</v>
       </c>
@@ -10551,7 +10849,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="180" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B180" s="3"/>
       <c r="C180" s="3" t="s">
         <v>36</v>
       </c>
@@ -10613,7 +10912,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="181" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B181" s="3"/>
       <c r="E181" s="3" t="s">
         <v>24</v>
       </c>
@@ -10669,7 +10969,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="182" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B182" s="3"/>
       <c r="E182" s="3" t="s">
         <v>25</v>
       </c>
@@ -10725,7 +11026,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="183" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B183" s="3"/>
       <c r="E183" s="3" t="s">
         <v>26</v>
       </c>
@@ -10781,7 +11083,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="184" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B184" s="3"/>
       <c r="E184" s="3" t="s">
         <v>27</v>
       </c>
@@ -10837,7 +11140,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="185" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B185" s="3"/>
       <c r="E185" s="3" t="s">
         <v>28</v>
       </c>
@@ -10893,7 +11197,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="186" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B186" s="3"/>
       <c r="E186" s="3" t="s">
         <v>29</v>
       </c>
@@ -10949,7 +11254,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="187" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B187" s="3"/>
       <c r="E187" s="3" t="s">
         <v>30</v>
       </c>
@@ -11005,7 +11311,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="188" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B188" s="3"/>
       <c r="D188" s="3" t="s">
         <v>31</v>
       </c>
@@ -11064,7 +11371,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="189" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B189" s="3"/>
       <c r="E189" s="3" t="s">
         <v>24</v>
       </c>
@@ -11120,7 +11428,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="190" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B190" s="3"/>
       <c r="E190" s="3" t="s">
         <v>25</v>
       </c>
@@ -11176,7 +11485,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="191" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B191" s="3"/>
       <c r="E191" s="3" t="s">
         <v>26</v>
       </c>
@@ -11232,7 +11542,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="192" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B192" s="3"/>
       <c r="E192" s="3" t="s">
         <v>27</v>
       </c>
@@ -11289,6 +11600,7 @@
       </c>
     </row>
     <row r="193" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B193" s="3"/>
       <c r="E193" s="3" t="s">
         <v>28</v>
       </c>
@@ -11345,6 +11657,7 @@
       </c>
     </row>
     <row r="194" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B194" s="3"/>
       <c r="E194" s="3" t="s">
         <v>29</v>
       </c>
@@ -11401,6 +11714,7 @@
       </c>
     </row>
     <row r="195" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B195" s="3"/>
       <c r="E195" s="3" t="s">
         <v>30</v>
       </c>
@@ -11522,6 +11836,7 @@
       </c>
     </row>
     <row r="197" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B197" s="3"/>
       <c r="E197" s="3" t="s">
         <v>24</v>
       </c>
@@ -11578,6 +11893,7 @@
       </c>
     </row>
     <row r="198" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B198" s="3"/>
       <c r="E198" s="3" t="s">
         <v>25</v>
       </c>
@@ -11634,6 +11950,7 @@
       </c>
     </row>
     <row r="199" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B199" s="3"/>
       <c r="E199" s="3" t="s">
         <v>26</v>
       </c>
@@ -11690,6 +12007,7 @@
       </c>
     </row>
     <row r="200" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B200" s="3"/>
       <c r="E200" s="3" t="s">
         <v>27</v>
       </c>
@@ -11746,6 +12064,7 @@
       </c>
     </row>
     <row r="201" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B201" s="3"/>
       <c r="E201" s="3" t="s">
         <v>28</v>
       </c>
@@ -11802,6 +12121,7 @@
       </c>
     </row>
     <row r="202" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B202" s="3"/>
       <c r="E202" s="3" t="s">
         <v>29</v>
       </c>
@@ -11858,6 +12178,7 @@
       </c>
     </row>
     <row r="203" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B203" s="3"/>
       <c r="E203" s="3" t="s">
         <v>30</v>
       </c>
@@ -11914,6 +12235,7 @@
       </c>
     </row>
     <row r="204" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B204" s="3"/>
       <c r="D204" s="3" t="s">
         <v>31</v>
       </c>
@@ -11973,6 +12295,7 @@
       </c>
     </row>
     <row r="205" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B205" s="3"/>
       <c r="E205" s="3" t="s">
         <v>24</v>
       </c>
@@ -12029,6 +12352,7 @@
       </c>
     </row>
     <row r="206" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B206" s="3"/>
       <c r="E206" s="3" t="s">
         <v>25</v>
       </c>
@@ -12085,6 +12409,7 @@
       </c>
     </row>
     <row r="207" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B207" s="3"/>
       <c r="E207" s="3" t="s">
         <v>26</v>
       </c>
@@ -12141,6 +12466,7 @@
       </c>
     </row>
     <row r="208" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B208" s="3"/>
       <c r="E208" s="3" t="s">
         <v>27</v>
       </c>
@@ -12196,7 +12522,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="209" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="209" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B209" s="3"/>
       <c r="E209" s="3" t="s">
         <v>28</v>
       </c>
@@ -12252,7 +12579,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="210" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="210" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B210" s="3"/>
       <c r="E210" s="3" t="s">
         <v>29</v>
       </c>
@@ -12308,7 +12636,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="211" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B211" s="3"/>
       <c r="E211" s="3" t="s">
         <v>30</v>
       </c>
@@ -12364,7 +12693,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="212" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B212" s="3"/>
       <c r="C212" s="3" t="s">
         <v>32</v>
       </c>
@@ -12426,7 +12756,8 @@
         <v>2128</v>
       </c>
     </row>
-    <row r="213" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="213" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B213" s="3"/>
       <c r="E213" s="3" t="s">
         <v>24</v>
       </c>
@@ -12482,7 +12813,8 @@
         <v>2103</v>
       </c>
     </row>
-    <row r="214" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="214" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B214" s="3"/>
       <c r="E214" s="3" t="s">
         <v>25</v>
       </c>
@@ -12538,7 +12870,8 @@
         <v>850</v>
       </c>
     </row>
-    <row r="215" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="215" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B215" s="3"/>
       <c r="E215" s="3" t="s">
         <v>26</v>
       </c>
@@ -12594,7 +12927,8 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="216" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="216" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B216" s="3"/>
       <c r="E216" s="3" t="s">
         <v>27</v>
       </c>
@@ -12650,7 +12984,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="217" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="217" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B217" s="3"/>
       <c r="E217" s="3" t="s">
         <v>28</v>
       </c>
@@ -12706,7 +13041,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="218" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="218" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B218" s="3"/>
       <c r="E218" s="3" t="s">
         <v>29</v>
       </c>
@@ -12762,7 +13098,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="219" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B219" s="3"/>
       <c r="E219" s="3" t="s">
         <v>30</v>
       </c>
@@ -12818,7 +13155,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="220" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B220" s="3"/>
       <c r="D220" s="3" t="s">
         <v>31</v>
       </c>
@@ -12877,7 +13215,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="221" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="221" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B221" s="3"/>
       <c r="E221" s="3" t="s">
         <v>24</v>
       </c>
@@ -12933,7 +13272,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="222" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="222" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B222" s="3"/>
       <c r="E222" s="3" t="s">
         <v>25</v>
       </c>
@@ -12989,7 +13329,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="223" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="223" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B223" s="3"/>
       <c r="E223" s="3" t="s">
         <v>26</v>
       </c>
@@ -13045,7 +13386,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="224" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="224" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B224" s="3"/>
       <c r="E224" s="3" t="s">
         <v>27</v>
       </c>
@@ -13101,7 +13443,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="225" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B225" s="3"/>
       <c r="E225" s="3" t="s">
         <v>28</v>
       </c>
@@ -13157,7 +13500,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="226" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B226" s="3"/>
       <c r="E226" s="3" t="s">
         <v>29</v>
       </c>
@@ -13213,7 +13557,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="227" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B227" s="3"/>
       <c r="E227" s="3" t="s">
         <v>30</v>
       </c>
@@ -13269,7 +13614,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="228" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B228" s="3"/>
       <c r="C228" s="3" t="s">
         <v>33</v>
       </c>
@@ -13331,7 +13677,8 @@
         <v>1685</v>
       </c>
     </row>
-    <row r="229" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="229" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B229" s="3"/>
       <c r="E229" s="3" t="s">
         <v>24</v>
       </c>
@@ -13387,7 +13734,8 @@
         <v>1685</v>
       </c>
     </row>
-    <row r="230" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="230" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B230" s="3"/>
       <c r="E230" s="3" t="s">
         <v>25</v>
       </c>
@@ -13443,7 +13791,8 @@
         <v>727</v>
       </c>
     </row>
-    <row r="231" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="231" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B231" s="3"/>
       <c r="E231" s="3" t="s">
         <v>26</v>
       </c>
@@ -13499,7 +13848,8 @@
         <v>958</v>
       </c>
     </row>
-    <row r="232" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="232" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B232" s="3"/>
       <c r="E232" s="3" t="s">
         <v>27</v>
       </c>
@@ -13555,7 +13905,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="233" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B233" s="3"/>
       <c r="E233" s="3" t="s">
         <v>28</v>
       </c>
@@ -13611,7 +13962,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="234" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B234" s="3"/>
       <c r="E234" s="3" t="s">
         <v>29</v>
       </c>
@@ -13667,7 +14019,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="235" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B235" s="3"/>
       <c r="E235" s="3" t="s">
         <v>30</v>
       </c>
@@ -13723,7 +14076,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="236" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B236" s="3"/>
       <c r="D236" s="3" t="s">
         <v>31</v>
       </c>
@@ -13782,7 +14136,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="237" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="237" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B237" s="3"/>
       <c r="E237" s="3" t="s">
         <v>24</v>
       </c>
@@ -13838,7 +14193,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="238" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="238" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B238" s="3"/>
       <c r="E238" s="3" t="s">
         <v>25</v>
       </c>
@@ -13894,7 +14250,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="239" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="239" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B239" s="3"/>
       <c r="E239" s="3" t="s">
         <v>26</v>
       </c>
@@ -13950,7 +14307,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="240" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="240" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B240" s="3"/>
       <c r="E240" s="3" t="s">
         <v>27</v>
       </c>
@@ -14006,7 +14364,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="241" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B241" s="3"/>
       <c r="E241" s="3" t="s">
         <v>28</v>
       </c>
@@ -14062,7 +14421,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="242" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B242" s="3"/>
       <c r="E242" s="3" t="s">
         <v>29</v>
       </c>
@@ -14118,7 +14478,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="243" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B243" s="3"/>
       <c r="E243" s="3" t="s">
         <v>30</v>
       </c>
@@ -14174,7 +14535,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="244" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B244" s="3"/>
       <c r="C244" s="3" t="s">
         <v>34</v>
       </c>
@@ -14236,7 +14598,8 @@
         <v>2171</v>
       </c>
     </row>
-    <row r="245" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="245" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B245" s="3"/>
       <c r="E245" s="3" t="s">
         <v>24</v>
       </c>
@@ -14292,7 +14655,8 @@
         <v>2171</v>
       </c>
     </row>
-    <row r="246" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="246" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B246" s="3"/>
       <c r="E246" s="3" t="s">
         <v>25</v>
       </c>
@@ -14348,7 +14712,8 @@
         <v>2171</v>
       </c>
     </row>
-    <row r="247" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="247" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B247" s="3"/>
       <c r="E247" s="3" t="s">
         <v>26</v>
       </c>
@@ -14404,7 +14769,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="248" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B248" s="3"/>
       <c r="E248" s="3" t="s">
         <v>27</v>
       </c>
@@ -14460,7 +14826,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="249" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B249" s="3"/>
       <c r="E249" s="3" t="s">
         <v>28</v>
       </c>
@@ -14516,7 +14883,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="250" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B250" s="3"/>
       <c r="E250" s="3" t="s">
         <v>29</v>
       </c>
@@ -14572,7 +14940,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="251" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B251" s="3"/>
       <c r="E251" s="3" t="s">
         <v>30</v>
       </c>
@@ -14628,7 +14997,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="252" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B252" s="3"/>
       <c r="D252" s="3" t="s">
         <v>31</v>
       </c>
@@ -14687,7 +15057,8 @@
         <v>33</v>
       </c>
     </row>
-    <row r="253" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="253" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B253" s="3"/>
       <c r="E253" s="3" t="s">
         <v>24</v>
       </c>
@@ -14743,7 +15114,8 @@
         <v>33</v>
       </c>
     </row>
-    <row r="254" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="254" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B254" s="3"/>
       <c r="E254" s="3" t="s">
         <v>25</v>
       </c>
@@ -14799,7 +15171,8 @@
         <v>33</v>
       </c>
     </row>
-    <row r="255" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="255" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B255" s="3"/>
       <c r="E255" s="3" t="s">
         <v>26</v>
       </c>
@@ -14855,7 +15228,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="256" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B256" s="3"/>
       <c r="E256" s="3" t="s">
         <v>27</v>
       </c>
@@ -14911,7 +15285,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="257" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B257" s="3"/>
       <c r="E257" s="3" t="s">
         <v>28</v>
       </c>
@@ -14967,7 +15342,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="258" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B258" s="3"/>
       <c r="E258" s="3" t="s">
         <v>29</v>
       </c>
@@ -15023,7 +15399,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="259" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B259" s="3"/>
       <c r="E259" s="3" t="s">
         <v>30</v>
       </c>
@@ -15079,7 +15456,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="260" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B260" s="3"/>
       <c r="C260" s="3" t="s">
         <v>35</v>
       </c>
@@ -15141,7 +15519,8 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="261" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="261" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B261" s="3"/>
       <c r="E261" s="3" t="s">
         <v>24</v>
       </c>
@@ -15197,7 +15576,8 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="262" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="262" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B262" s="3"/>
       <c r="E262" s="3" t="s">
         <v>25</v>
       </c>
@@ -15253,7 +15633,8 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="263" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="263" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B263" s="3"/>
       <c r="E263" s="3" t="s">
         <v>26</v>
       </c>
@@ -15309,7 +15690,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="264" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B264" s="3"/>
       <c r="E264" s="3" t="s">
         <v>27</v>
       </c>
@@ -15365,7 +15747,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="265" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B265" s="3"/>
       <c r="E265" s="3" t="s">
         <v>28</v>
       </c>
@@ -15421,7 +15804,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="266" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B266" s="3"/>
       <c r="E266" s="3" t="s">
         <v>29</v>
       </c>
@@ -15477,7 +15861,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="267" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B267" s="3"/>
       <c r="E267" s="3" t="s">
         <v>30</v>
       </c>
@@ -15533,7 +15918,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="268" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B268" s="3"/>
       <c r="D268" s="3" t="s">
         <v>31</v>
       </c>
@@ -15592,7 +15978,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="269" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="269" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B269" s="3"/>
       <c r="E269" s="3" t="s">
         <v>24</v>
       </c>
@@ -15648,7 +16035,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="270" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="270" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B270" s="3"/>
       <c r="E270" s="3" t="s">
         <v>25</v>
       </c>
@@ -15704,7 +16092,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="271" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="271" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B271" s="3"/>
       <c r="E271" s="3" t="s">
         <v>26</v>
       </c>
@@ -15760,7 +16149,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="272" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B272" s="3"/>
       <c r="E272" s="3" t="s">
         <v>27</v>
       </c>
@@ -15816,7 +16206,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="273" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B273" s="3"/>
       <c r="E273" s="3" t="s">
         <v>28</v>
       </c>
@@ -15872,7 +16263,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="274" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B274" s="3"/>
       <c r="E274" s="3" t="s">
         <v>29</v>
       </c>
@@ -15928,7 +16320,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="275" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B275" s="3"/>
       <c r="E275" s="3" t="s">
         <v>30</v>
       </c>
@@ -15984,7 +16377,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="276" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B276" s="3"/>
       <c r="C276" s="3" t="s">
         <v>36</v>
       </c>
@@ -16046,7 +16440,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="277" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B277" s="3"/>
       <c r="E277" s="3" t="s">
         <v>24</v>
       </c>
@@ -16102,7 +16497,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="278" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B278" s="3"/>
       <c r="E278" s="3" t="s">
         <v>25</v>
       </c>
@@ -16158,7 +16554,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="279" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B279" s="3"/>
       <c r="E279" s="3" t="s">
         <v>26</v>
       </c>
@@ -16214,7 +16611,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="280" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B280" s="3"/>
       <c r="E280" s="3" t="s">
         <v>27</v>
       </c>
@@ -16270,7 +16668,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="281" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B281" s="3"/>
       <c r="E281" s="3" t="s">
         <v>28</v>
       </c>
@@ -16326,7 +16725,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="282" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B282" s="3"/>
       <c r="E282" s="3" t="s">
         <v>29</v>
       </c>
@@ -16382,7 +16782,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="283" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B283" s="3"/>
       <c r="E283" s="3" t="s">
         <v>30</v>
       </c>
@@ -16438,7 +16839,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="284" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B284" s="3"/>
       <c r="D284" s="3" t="s">
         <v>31</v>
       </c>
@@ -16497,7 +16899,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="285" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B285" s="3"/>
       <c r="E285" s="3" t="s">
         <v>24</v>
       </c>
@@ -16553,7 +16956,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="286" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B286" s="3"/>
       <c r="E286" s="3" t="s">
         <v>25</v>
       </c>
@@ -16609,7 +17013,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="287" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B287" s="3"/>
       <c r="E287" s="3" t="s">
         <v>26</v>
       </c>
@@ -16665,7 +17070,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="3:22" x14ac:dyDescent="0.35">
+    <row r="288" spans="2:22" x14ac:dyDescent="0.35">
+      <c r="B288" s="3"/>
       <c r="E288" s="3" t="s">
         <v>27</v>
       </c>
@@ -16722,6 +17128,7 @@
       </c>
     </row>
     <row r="289" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="B289" s="3"/>
       <c r="E289" s="3" t="s">
         <v>28</v>
       </c>
@@ -16778,6 +17185,7 @@
       </c>
     </row>
     <row r="290" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="B290" s="3"/>
       <c r="E290" s="3" t="s">
         <v>29</v>
       </c>
@@ -16834,6 +17242,7 @@
       </c>
     </row>
     <row r="291" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="B291" s="3"/>
       <c r="E291" s="3" t="s">
         <v>30</v>
       </c>
